--- a/biology/Médecine/Diencéphale/Diencéphale.xlsx
+++ b/biology/Médecine/Diencéphale/Diencéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dienc%C3%A9phale</t>
+          <t>Diencéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diencéphale est, en neuroanatomie des chordés, un ensemble de substance grise, de forme ovoïde constitué des thalamus, hypothalamus, épithalamus et sous-thalamus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dienc%C3%A9phale</t>
+          <t>Diencéphale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le diencéphale est composé des structures suivantes : 
 thalamus ;
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dienc%C3%A9phale</t>
+          <t>Diencéphale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Développement de l'encéphale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le diencéphale apparaît au stade à cinq vésicules du neurodéveloppement embryonnaire, lorsque le prosencéphale se divise en deux, la partie rostrale formant le télencéphale et la partie caudale donnant le diencéphale. Les cinq vésicules en question sont les suivantes :
 Télencéphale ;
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dienc%C3%A9phale</t>
+          <t>Diencéphale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les diverses structures du diencéphale contribuent à la régulation de l'activité du système nerveux autonome, du système hormonal et du sommeil.
 </t>
